--- a/outputs/CAROLINA1.xlsx
+++ b/outputs/CAROLINA1.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: As Abi is planning which sessions to attend the next day, determining what sessions are available aligns directly with her goal of organizing her schedule. This step is crucial for making informed decisions about which sessions would be most relevant and beneficial for her to attend. Abi tends to gather comprehensive information for a complete understanding, and knowing what sessions are available is essential for this process.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. This subgoal aligns with her need to gather comprehensive information to form a complete understanding of the sessions available, which fits her information processing style.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Learning Style, Information Processing Style
-Why: The "Program" menu item is clearly labeled and logically indicates where information about the sessions can be found. Abi, who prefers process-oriented learning, would recognize that the next step in her process of planning which sessions to attend would involve looking at the program. Additionally, Abi's comprehensive information processing style would lead her to explore this menu item to gather the necessary details about the sessions being held.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and directly relevant to Abi's goal of planning which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on the "Program" menu item is a necessary step to find the session information she needs.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing several options. While these options may be relevant, it is not immediately clear which one Abi should select to find the specific session schedule for the next day. This ambiguity can be confusing for Abi, who has low confidence in unfamiliar computing tasks and prefers a comprehensive and clear path to information. The dropdown menu does not provide enough guidance to ensure Abi knows she is making progress towards her goal of planning her sessions for tomorrow.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Program" menu item, Abi will see a dropdown menu with various options related to the conference program, such as "Complete Program," "Week Overview," "Keynotes," and more. This provides clear and relevant options for her to explore further, aligning with her motivation to plan her schedule and her comprehensive information processing style. She will know she is making progress toward her goal of finding the sessions for the next day.</t>
         </is>
       </c>
     </row>
@@ -452,17 +452,17 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Learning Style, Information Processing Style
-Why: The "Complete Program" option in the dropdown menu is clearly labeled and suggests that it will provide a comprehensive list of all the sessions available. Since Abi prefers process-oriented learning, she will likely understand that clicking on "Complete Program" will give her the detailed information she needs to plan her sessions for the next day. This aligns with her comprehensive information processing style, as it indicates that she will receive all the necessary details in one place.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Complete Program" is a necessary step to access the full list of sessions and make an informed decision.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: While the page Abi lands on after clicking "Complete Program" does provide a detailed list of sessions, this information is not filtered by day. Abi needs to know the sessions specifically for tomorrow. Although there is a "Filter by Day" option, it is not immediately obvious or highlighted. Given Abi's low confidence in unfamiliar computing tasks and preference for comprehensive information, she might not immediately realize that she needs to use the filter to achieve her goal. Thus, she might feel uncertain about making progress toward her goal of planning sessions for the next day.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Complete Program," Abi is taken to a detailed schedule of the conference sessions. This page provides a comprehensive list of sessions, including times, titles, and speakers, which aligns with her motivation to plan her schedule and her comprehensive information processing style. She will know she is making progress toward her goal and has access to all the information she needs to decide which sessions to attend.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Learning Style, Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and suggests that it will provide a chronological list of sessions, which is exactly what Abi needs to plan her schedule for the next day. Since Abi prefers process-oriented learning, the label "Session Timeline" clearly indicates that clicking it will lead her to the detailed schedule information she is looking for. This aligns with her comprehensive information processing style, as it suggests a structured and orderly presentation of session information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Session Timeline" tab is clearly labeled and is a logical next step for Abi to get a visual overview of the sessions. Given her motivation to plan her schedule and her comprehensive information processing style, she will recognize that clicking on "Session Timeline" will help her see the sessions in a timeline format, which can aid in her decision-making process.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: After clicking on "Session Timeline," Abi is presented with an overwhelming amount of detailed information displayed in a complex timeline format. While this view might have the necessary information, it is not easy to navigate or understand at a glance, especially for someone like Abi who has low confidence in unfamiliar computing tasks and prefers comprehensive, but clearly organized information. The timeline does not clearly indicate which sessions are on which days without extensive scrolling and deciphering, making it challenging for Abi to feel confident that she is making progress toward her goal of planning sessions for tomorrow.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The session timeline page is very dense and visually overwhelming, with a large amount of information presented in a compact format. Given Abi's comprehensive information processing style, she may find it difficult to quickly extract the specific information she needs. Additionally, her low computer self-efficacy may make her feel uncertain about navigating such a complex page, potentially causing her to doubt whether she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: The timeline view is highly detailed and dense, requiring Abi to locate the specific tutorial ("R for Software Engineering Research") among many other sessions. Abi, who has low confidence in unfamiliar computing tasks, may struggle to identify the correct session amid the cluttered visual layout. Additionally, the timeline does not provide immediate clarity or guidance on which sessions are relevant for tomorrow specifically, making it difficult for Abi to feel confident that she is making the right progress toward her goal. This complexity and lack of clear direction could hinder her ability to know what to do at this step.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline page is visually dense and may be overwhelming for Abi. Given her low computer self-efficacy, she might feel uncertain about clicking on a specific session without clear instructions or confirmation that it will provide the detailed information she needs. Additionally, her preference for process-oriented learning means she would benefit from more explicit guidance on what to do next, which is not provided on this page.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is directed to a page that provides detailed information about the tutorial, including the course description, time, and prerequisites. This aligns well with Abi's comprehensive information processing style, as it offers all the relevant details she needs in one place. The clear presentation of information ensures that Abi knows she is making progress toward her goal of planning sessions for tomorrow and has the necessary details to decide whether or not to attend this specific tutorial.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she will have access to all the necessary information to decide whether to attend this session. She will know she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA1.xlsx
+++ b/outputs/CAROLINA1.xlsx
@@ -424,185 +424,199 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Given the scenario where someone is planning their conference schedule from their hotel room, yes, thinking about "what sessions to go to tomorrow" is absolutely a logical and necessary subgoal. This is evidenced by several aspects in the ICSE 2019 conference website image:
-1. The website shows multiple tracks and sessions (visible in the left menu), including:
-- Plenary sessions
-- Technical Track
-- Workshops
-- Symposiums
-- Various other program elements
-2. The conference spans multiple days (May 25-31, 2019), so daily planning would be important.
-3. The website provides all the necessary information to make these decisions:
-- Program details
-- Tracks information
-- Time schedules (implied by the structure)
-A conference attendee would naturally need to plan their schedule to make the most of their time at the conference. This planning step is particularly important the night before, as it allows them to:
-- Be prepared for the next day
-- Not miss important sessions
-- Manage time effectively between different tracks
-- Ensure they can attend their priority sessions
-So yes, the subgoal "What sessions I should go to tomorrow" is a very relevant and expected step in achieving the overall use case of attending and participating in the conference effectively.</t>
+          <t>Answer: YES
+Facets:
+1. Motivations
+2. Information Processing Style
+3. Attitude Towards Risk
+Why: This subgoal aligns with ABI's characteristics because:
+- She is motivated to plan ahead and accomplish her task of attending sessions efficiently (Motivations)
+- She prefers to gather comprehensive information before acting, so planning sessions the night before matches her information processing style
+- Being risk-averse, she would want to plan ahead rather than making last-minute decisions about which sessions to attend, as this reduces uncertainty and helps her avoid potential issues (Attitude Towards Risk)
+- Planning ahead in her hotel room provides a comfortable, low-pressure environment for her to process information thoroughly, which aligns with her comprehensive information gathering style
+The subgoal represents a logical first step that would make ABI feel more confident about her conference attendance the next day, reducing uncertainty and allowing her to focus on the content rather than logistics.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yes, Abi will likely know what to do at this step because:
-1. The interface clearly shows a "Program" menu item in the top navigation bar, which is a common convention for conference websites.
-2. Given that Abi's goal is to find out what sessions to attend tomorrow, the "Program" link is an intuitive choice as:
-   - It's clearly visible in the main navigation
-   - "Program" is standard conference terminology for the schedule of sessions
-   - It's a common way to find session information at academic conferences
-3. Considering Abi's characteristics:
-   - She likes to gather all information before proceeding
-   - She's thorough and methodical
-   - She prefers to be confident about her choices
-The "Program" link would appeal to her information-gathering approach, as it's likely to contain the comprehensive schedule she needs to plan her day.
-4. The interface is clean and the navigation options are clearly labeled, which aligns with Abi's preference for clear, unambiguous choices.
-Therefore, clicking the "Program" menu item is a straightforward and logical step that matches Abi's problem-solving style and her goal of planning tomorrow's sessions.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: ABI would know to click on the Program menu item because:
+- The "Program" menu item is clearly visible in the top navigation bar
+- The term "Program" is a standard, familiar conference term that directly relates to her goal of finding sessions to attend
+- It's a straightforward menu item without technical jargon, making it accessible for someone with low computer self-efficacy
+- The menu structure is conventional and follows a process-oriented layout that aligns with her learning style
+- Given her comprehensive information processing style, she would recognize "Program" as the logical place to find session information
+The action is clear and doesn't require any risky experimentation or tinkering, which makes it comfortable for ABI to proceed with this step.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yes, clicking on the "Program" menu item is a good action and Abi will know she's making progress because:
-1. The dropdown menu that appears shows several relevant options for planning sessions:
-- "Complete Program"
-- "Your Program" 
-- "Week Overview"
-- "Industry Program"
-- "Keynotes"
-- And more session-related items
-2. This aligns well with Abi's comprehensive information processing style, as she can:
-- See all the different program viewing options
-- Get a complete view of available sessions
-- Access detailed information about different types of sessions (keynotes, tutorials, etc.)
-3. There are clear indicators of success:
-- The menu expands to show program-related options
-- The options are clearly labeled and related to session planning
-- Multiple ways to view the schedule are provided, allowing Abi to be thorough in her planning
-4. Given Abi's characteristics:
-- She likes to gather comprehensive information before proceeding
-- She prefers to be thorough and methodical
-- She wants to be confident she's making the right choice
-The Program menu provides exactly what she needs to start planning her sessions systematically, giving her confidence she's on the right track toward her goal of planning tomorrow's sessions.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+4. None of the Above (Overwhelmed by options)
+Why: Although ABI has clicked on the Program menu, she will likely feel uncertain about her progress because:
+- The dropdown menu shows multiple options (Complete Program, Your Program, Week Overview, etc.) without clear indication of which one would best help her plan tomorrow's sessions
+- Her comprehensive information processing style means she'll want to understand all options before proceeding, but the number of choices may overwhelm her
+- With her low computer self-efficacy, having multiple options without clear guidance about which one leads to daily session schedules may cause uncertainty
+- Being risk-averse, she may hesitate about which option to choose, fearing she might select the wrong one
+- The "Filter by Day" option, which might be most relevant to her goal, is somewhat hidden at the bottom of a long menu, and it's not immediately clear if this is the best choice for viewing tomorrow's sessions
+The multiple options without clear guidance about which one specifically helps with planning tomorrow's sessions would make ABI unsure if she's on the right path.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes, Abi will likely know what to do at this step for several reasons:
-1. The "Complete Program" link is clearly visible in the Program dropdown menu and its purpose is self-explanatory. For someone like Abi who tends to be comprehensive and process-oriented, this would be a logical choice.
-2. Given that she wants to plan her sessions for tomorrow, the "Complete Program" option would appeal to her comprehensive information processing style, as it suggests access to the full schedule rather than partial views.
-3. The interface makes it easy to spot the "Program" dropdown menu in the navigation bar, and "Complete Program" is the first option in that menu.
-4. Since Abi prefers gathering complete information before making decisions, clicking on "Complete Program" aligns with her careful approach to planning. She would want to see all available sessions before deciding which ones to attend.
-5. There aren't any competing options that would create confusion - while there are other menu items like "Week Overview" or "Your Program," the "Complete Program" option most directly addresses her need to see all possible sessions for planning purposes.
-Therefore, this step should be straightforward for Abi given her methodical approach and preference for comprehensive information.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+4. None of the Above (Multiple competing options)
+Why: ABI would likely hesitate to click "Complete Program" because:
+- There are multiple potentially relevant options in the dropdown menu ("Complete Program", "Your Program", "Week Overview", "Filter by Day") without clear indication of which one would best help her find tomorrow's sessions
+- Her comprehensive information processing style means she wants to understand all options before making a choice, and it's not clear which option is best for viewing daily schedules
+- With her low computer self-efficacy, she would be uncertain if "Complete Program" would show her too much information or if it's the right choice for finding specific day's sessions
+- Being risk-averse, she might worry that clicking "Complete Program" would overwhelm her with the entire conference schedule when she just wants to see tomorrow's sessions
+- The presence of "Filter by Day" at the bottom might make her question if that would be a better choice for her specific need
+The lack of clear guidance about which option is best for viewing a specific day's schedule would make ABI uncertain about proceeding with "Complete Program."</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yes, Abi would know they're making progress toward their goal of planning tomorrow's sessions, and here's why:
-1. Information Comprehensiveness:
-- The program shows a detailed timeline of all sessions
-- It displays clear time slots, session titles, locations, and speakers
-- It's organized chronologically, making it easy to plan a schedule
-2. Information Clarity:
-- The interface shows "Detailed Table," "Session Timeline," and "Detailed Timeline" views
-- Sessions are color-coded by track/type
-- Each session has duration, room location, and topic clearly marked
-3. Verification Features:
-- A time zone notice helps ensure correct timing ("You're viewing the program in a time zone...")
-- Filter options are available to customize the view
-- The calendar export option allows for later reference
-4. Comprehensiveness for Decision-Making:
-- Shows all concurrent sessions
-- Includes session types (keynotes, technical talks, coffee breaks)
-- Provides session descriptions and speaker affiliations
-Given Abi's process-oriented nature and need for information gathering to feel confident, this complete program view provides all the necessary details to make informed decisions about which sessions to attend. They can systematically go through the schedule, compare overlapping sessions, and create a personal agenda while being certain they haven't missed any options.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above (Information Overload)
+4. Attitude Toward Risk
+Why: ABI would feel overwhelmed and uncertain about her progress because:
+- The page shows a very detailed schedule with multiple sessions, times, locations, and presenters, which can be overwhelming for her comprehensive information processing style
+- The page appears to show May 25th (Saturday) by default, with no clear indication of how to navigate to tomorrow's schedule
+- With her low computer self-efficacy, she might struggle with:
+  * Understanding the complex timeline layout
+  * Finding how to navigate to a specific day
+  * Making sense of all the different session types and locations
+- The amount of information presented at once (times, locations, speakers, session types) would be overwhelming and might make her question if she's looking at the right information
+- Being risk-averse, she might worry about missing important sessions due to the complex presentation of information
+- There's no clear guidance or help on how to effectively use this view to plan her schedule
+The complexity and density of information without clear navigation to tomorrow's sessions would make ABI unsure if she's making progress toward her goal of planning tomorrow's schedule.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yes, Abi will likely know what to do at this step for several reasons:
-1. The interface clearly shows three view options at the top: "Detailed Table", "Session Timeline", and "Detailed Timeline"
-2. Given Abi's comprehensive information processing style and preference to gather all available information before making decisions (key GenderMag facets), she would likely notice these different view options.
-3. The "Session Timeline" option is exactly what she needs to plan her schedule since:
-   - It will give her a visual timeline of all sessions
-   - It will help her spot any scheduling conflicts
-   - It allows her to see the full day's schedule at once
-4. The interface element is clearly labeled and visible at the top of the program schedule.
-Furthermore, because Abi likes to understand things completely before proceeding (another GenderMag facet), she would appreciate having access to a timeline view that shows how sessions relate to each other temporally, helping her make informed decisions about which sessions to attend.
-The timeline view would appeal to Abi's methodical approach to planning and her desire to minimize risk of missing important sessions or making scheduling mistakes.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Learning Style
+4. None of the Above (Unclear Navigation)
+Why: ABI would struggle to know if clicking "Session Timeline" is the right action because:
+- The page already shows a detailed schedule view, and it's not clear how clicking "Session Timeline" would help her find tomorrow's sessions
+- With her low computer self-efficacy, she would be uncertain about:
+  * Whether clicking this would lose her current view
+  * If this would help her navigate to a different day
+  * What difference this view would show compared to the current view
+- Being risk-averse, she would hesitate to click without knowing what will happen
+- Her process-oriented learning style means she would prefer clear instructions on how to navigate to tomorrow's schedule, which isn't provided
+- There's no clear indication or help text explaining what "Session Timeline" view would show differently from the current "Detailed Table" view
+- The presence of multiple view options (Detailed Table, Session Timeline, Detailed Timeline) without clear explanations would make her uncertain about which one to choose
+The lack of clear guidance about how "Session Timeline" would help her find tomorrow's sessions would make ABI hesitant to click it.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yes, by clicking on the session timeline, Abi is making clear progress toward their goal of planning tomorrow's sessions for the following reasons:
-1. Information Comprehensiveness:
-- The timeline shows a complete schedule of all sessions
-- Sessions are color-coded by type
-- Time slots and locations are clearly visible
-- Session details like titles and presenters are displayed
-2. Visual Organization:
-- The timeline format makes it easy to see scheduling conflicts
-- Parallel sessions are displayed side by side
-- The chronological layout helps with planning the day
-- Different tracks are clearly separated
-3. Goal Alignment:
-- This view directly addresses Abi's need to plan their schedule
-- They can see all options available for tomorrow
-- The format allows for making informed choices between concurrent sessions
-4. Confirmation of Progress:
-- Abi will know they're on the right track because:
-  * They can see tomorrow's full schedule
-  * They can compare different sessions in the same time slot
-  * They have all the information needed to make decisions
-  * The format supports their planning task
-The timeline view provides exactly what Abi needs to accomplish their goal of planning tomorrow's conference schedule, making it clear they've taken the right action to progress toward their objective.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above (Visual Overwhelm)
+4. Attitude Toward Risk
+Why: ABI would feel overwhelmed and uncertain about her progress because:
+- The timeline view presents an extremely long, complex visualization with multiple colored blocks and parallel tracks, which would be overwhelming for her comprehensive information processing style
+- With her low computer self-efficacy, she would struggle with:
+  * Understanding how to interpret the different colored blocks
+  * Finding how to navigate to tomorrow's specific date
+  * Making sense of the parallel sessions and their relationships
+- The sheer amount of visual information presented at once is overwhelming and makes it difficult to:
+  * Process all the information
+  * Locate a specific day's sessions
+  * Understand the meaning of different colors and layouts
+- Being risk-averse, she would feel anxious about potentially missing important sessions due to the complex visualization
+- There's no clear guidance or help text explaining how to effectively use this timeline view
+- The vertical scrolling required to see all sessions would make it difficult for her to maintain context and understand the overall schedule
+This visualization would make ABI feel less confident about her ability to plan tomorrow's schedule, rather than helping her progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Based on the image and scenario provided, yes, Abi should know what to do at this step. Here's why:
-1. Visual Clarity: The schedule shown in the image is a color-coded timeline/program schedule for ICSE 2019, which makes it easy to locate specific sessions.
-2. Specific Target: The tutorial "R for Software Engineering Research" would be clearly marked on the schedule, making it findable among the other sessions.
-3. Task Relevance: Since Abi is planning her sessions for the next day and is physically at the conference, clicking on a tutorial session to get more information aligns with her subgoal of deciding which sessions to attend.
-4. Information Need: As Abi is making decisions about tomorrow's sessions, getting details about a specific tutorial by clicking on it is a logical action to help her make an informed choice.
-5. Familiar Interface: Conference schedules typically make sessions clickable to reveal more details, so this would be a familiar interaction pattern for someone attending an academic conference.
-The action of clicking on the tutorial session is straightforward and directly supports Abi's goal of planning her conference schedule for the next day.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Information Processing Style
+4. None of the Above (Visual Complexity)
+Why: ABI would struggle to know if clicking on a specific tutorial is the right action because:
+- The timeline view is extremely complex and overwhelming, making it difficult to:
+  * Locate specific sessions among the many colored blocks
+  * Understand which colored block represents tutorials
+  * Be confident that she's clicking on the right session
+- With her low computer self-efficacy, she would be uncertain about:
+  * Whether she's identified the correct tutorial block
+  * If clicking will provide the information she needs
+  * If she might lose her current view
+- Being risk-averse, she would hesitate to click without being completely sure it's the right tutorial
+- Her comprehensive information processing style is overwhelmed by:
+  * The dense visual presentation
+  * Multiple parallel tracks
+  * Various colors and sizes of blocks
+  * Lack of clear labeling or guidance
+The complex visualization and lack of clear navigation cues would make ABI uncertain about clicking on any specific session block, as she wouldn't be confident she's making the right choice.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Looking at the webpage Abi has clicked on, it shows a detailed tutorial session about "R for Software Engineering Research" scheduled for Wednesday, May 29, 8:30-17:30.
-The page provides comprehensive information including:
-- Course description
-- Course materials
-- Prerequisites
-- Time and date details
-- Length of the session (full day)
-Abi should be able to determine if this is the right choice because:
-1. The timing is clear (Wednesday is tomorrow from Abi's current time)
-2. The page provides detailed information about what will be covered
-3. The course description clearly outlines the content and target audience
-4. Prerequisites are listed so Abi can evaluate if the tutorial matches their background
-5. The duration is specified (full day), helping with schedule planning
-All this information allows Abi to make an informed decision about whether this tutorial aligns with their interests and expertise level. The comprehensive details should help them feel confident about whether attending this session would be a good use of their time tomorrow.
-So yes, Abi should be able to know if they're making progress toward their goal of planning tomorrow's schedule, as the page provides all the necessary information to make that assessment.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Computer Self-Efficacy
+Why: ABI would feel confident she's making progress because:
+- The page provides clear, comprehensive information that aligns with her information processing style:
+  * Clear course descriptions
+  * Detailed timing information
+  * Prerequisites and requirements
+  * Information about the instructors
+- The information is presented in a structured, easy-to-read format that helps with her low computer self-efficacy:
+  * Text is well-organized
+  * No complex navigation required
+  * Clear headings and sections
+- The content directly supports her motivation to plan her schedule:
+  * She can see exactly what the tutorial covers
+  * She can evaluate if it matches her interests and needs
+  * She can see when it's scheduled
+The page provides all the necessary information in a clear, organized way that allows ABI to make an informed decision about whether to attend this tutorial, helping her accomplish her goal of planning tomorrow's schedule.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA1.xlsx
+++ b/outputs/CAROLINA1.xlsx
@@ -425,8 +425,9 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations
-Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish tasks efficiently.</t>
+Facets: 1.Motivations
+Why: Abi uses technology to accomplish tasks. Abi learns new technologies if and when needed but prefers to use methods they are already familiar with and comfortable with to keep their focus on the tasks they care about.
+She needs to plan for sessions to go to tomorrow, so she should think this as an important step to achieve the ultimate goal of planning to go to relevant sessions</t>
         </is>
       </c>
     </row>
@@ -434,26 +435,26 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly relates to Abi's goal of finding sessions to attend. Her motivation to plan her schedule and her comprehensive information processing style will guide her to click on it to find relevant session information.</t>
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. None of the other facets put ABI at risk of not completing this action.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a lot of information, which might overwhelm Abi. Her comprehensive information processing style could make it difficult for her to quickly find the specific sessions she is interested in. Additionally, her low computer self-efficacy might make her doubt whether she is on the right track, as the page does not clearly indicate progress toward her specific goal.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions and their times and descriptions, which is precisely what she needs to make her decision.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in knowing what to do without explicit instructions.</t>
+          <t>Answer: YES
+Facets: 1. Motivations
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. Clicking at complete program will give her a list of sessions that have complete information.</t>
         </is>
       </c>
     </row>
@@ -461,8 +462,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays the program schedule with detailed timelines, which directly aligns with Abi's goal of planning her sessions. The structured format helps her process the information comprehensively, confirming she is on the right track and making progress toward her goal.</t>
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions that have complete information, which is precisely what she needs to make her decision.</t>
         </is>
       </c>
     </row>
@@ -470,8 +471,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "session timeline" option is clearly labeled and directly relates to Abi's goal of organizing her schedule. Her motivation to efficiently plan her day and her comprehensive information processing style will guide her to explore this option for a more visual representation of the sessions.</t>
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. Clicking on session timeline will give her a list of sessions that have timeline which is precisely what she needs to make her decision.</t>
         </is>
       </c>
     </row>
@@ -479,17 +480,17 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear, visual representation of the schedule, which helps Abi see the sessions at a glance. This aligns with her motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions that have timeline which is precisely what she needs to make her decision.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense with information, and without clear instructions or labels indicating what clicking on a tutorial will do, Abi might hesitate. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in taking this action without explicit guidance.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to.</t>
         </is>
       </c>
     </row>
@@ -497,8 +498,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Facets: 1. Motivations, 6. None of the Above
+Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees the details of the tutorials that run day by day, which is precisely what she needs to make her decision.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA1.xlsx
+++ b/outputs/CAROLINA1.xlsx
@@ -425,9 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivations
-Why: Abi uses technology to accomplish tasks. Abi learns new technologies if and when needed but prefers to use methods they are already familiar with and comfortable with to keep their focus on the tasks they care about.
-She needs to plan for sessions to go to tomorrow, so she should think this as an important step to achieve the ultimate goal of planning to go to relevant sessions</t>
+Facets: 1. Motivations
+Why: Abi is at the conference and planning which sessions to attend the next day. Determining which sessions to go to is a logical step toward achieving her goal of planning her schedule for the conference.</t>
         </is>
       </c>
     </row>
@@ -435,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. None of the other facets put ABI at risk of not completing this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" menu item is clearly labeled and aligns with Abi's goal of finding out which sessions to attend. Her motivation to plan her schedule and her comprehensive information processing style would guide her to look for a program or schedule-related link.</t>
         </is>
       </c>
     </row>
@@ -444,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions and their times and descriptions, which is precisely what she needs to make her decision.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Week Overview," and specific dates. This provides clear paths to explore the schedule, confirming she's on the right track to find session information for the next day.</t>
         </is>
       </c>
     </row>
@@ -453,26 +452,26 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. Clicking at complete program will give her a list of sessions that have complete information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and directly relates to Abi's goal of finding session information. Her motivation to plan and her comprehensive information processing style would lead her to select this option to view all available sessions.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions that have complete information, which is precisely what she needs to make her decision.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of information, which may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about navigating such a dense page effectively.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. Clicking on session timeline will give her a list of sessions that have timeline which is precisely what she needs to make her decision.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and there is no clear indication or instruction about a "session timeline" to click on. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -480,17 +479,17 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees a list of sessions that have timeline which is precisely what she needs to make her decision.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The session timeline provides a clear, visual representation of the schedule, which helps Abi see the sessions for each day. This aligns with her motivation to plan her day and her comprehensive information processing style, allowing her to confirm she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is visually complex, and without clear instructions or labels indicating that clicking on a tutorial will provide more information, Abi might hesitate. Her low computer self-efficacy and preference for explicit guidance mean she may not be confident in taking this action without more direction.</t>
         </is>
       </c>
     </row>
@@ -498,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 6. None of the Above
-Why: Abi uses technologies to accomplish tasks. Here, she is using the program menu to view details about the sessions and decide which sessions she might want to go to. She sees the details of the tutorials that run day by day, which is precisely what she needs to make her decision.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking, Abi lands on a page with detailed information about the "R for Software Engineering Research" tutorial, including the time, location, and course description. This aligns with her motivation to plan her sessions and her comprehensive information processing style, confirming she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
